--- a/pricingcomparison.xlsx
+++ b/pricingcomparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainapudi/Desktop/multimodal-rag-on-slide-decks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8306C8-91EF-CA4F-B373-3ADBE89047D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA84F5F-D50A-514E-B1AE-4CDFA0C17D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{BEBA8347-5D96-5440-96D2-646A5128C4D4}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B723AB-3729-164F-A81B-11EED7E96CFC}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/pricingcomparison.xlsx
+++ b/pricingcomparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainapudi/Desktop/multimodal-rag-on-slide-decks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA84F5F-D50A-514E-B1AE-4CDFA0C17D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE55CB-97B1-7643-B011-07BC822731B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{BEBA8347-5D96-5440-96D2-646A5128C4D4}"/>
   </bookViews>
@@ -101,12 +101,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000_);[Red]\(&quot;$&quot;#,##0.000000\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0000000000_);[Red]\(&quot;$&quot;#,##0.0000000000\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00000_);[Red]\(&quot;$&quot;#,##0.00000\)"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00000000_);[Red]\(&quot;$&quot;#,##0.00000000\)"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -226,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +240,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,12 +258,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B723AB-3729-164F-A81B-11EED7E96CFC}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,28 +604,28 @@
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:15" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -632,7 +634,7 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -658,23 +660,23 @@
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="18">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <f>E6/1000 * D6</f>
         <v>6.0000000000000008E-8</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="20">
         <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <f>H6/1000 * G6</f>
         <v>0</v>
       </c>
@@ -686,23 +688,23 @@
       <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="18">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E7" s="7">
         <v>20</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="19">
         <f t="shared" ref="F7:F8" si="0">E7/1000 * D7</f>
         <v>1.6000000000000003E-5</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="20">
         <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <f t="shared" ref="I7:I8" si="1">H7/1000 * G7</f>
         <v>0</v>
       </c>
@@ -714,23 +716,23 @@
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E8" s="7">
         <v>700</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>1.2E-4</v>
       </c>
@@ -742,13 +744,13 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <f>SUM(F5:F8)</f>
         <v>2.1160599999999999E-3</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <f>SUM(I5:I8)</f>
         <v>1.2E-4</v>
       </c>
@@ -763,7 +765,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="20">
+      <c r="I10" s="21">
         <f>F9+I9</f>
         <v>2.2360599999999998E-3</v>
       </c>
@@ -781,28 +783,28 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -815,7 +817,7 @@
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -841,7 +843,7 @@
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E15">
@@ -851,13 +853,13 @@
         <f>E15/1000 * D15</f>
         <v>1.3568999999999999E-2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H15" s="8">
         <v>350</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="18">
         <f>H15/1000 * G15</f>
         <v>5.2499999999999995E-3</v>
       </c>
@@ -869,7 +871,7 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="18">
         <v>1E-4</v>
       </c>
       <c r="E16" s="7">
@@ -879,13 +881,13 @@
         <f t="shared" ref="F16:F18" si="2">E16/1000 * D16</f>
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="20">
         <v>0</v>
       </c>
       <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <f t="shared" ref="I16:I18" si="3">H16/1000 * G16</f>
         <v>0</v>
       </c>
@@ -897,7 +899,7 @@
       <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="18">
         <v>1E-4</v>
       </c>
       <c r="E17" s="7">
@@ -907,13 +909,13 @@
         <f t="shared" si="2"/>
         <v>2.0000000000000003E-6</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="20">
         <v>0</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -925,7 +927,7 @@
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="7">
@@ -935,13 +937,13 @@
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H18" s="8">
         <v>8</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="18">
         <f t="shared" si="3"/>
         <v>1.2E-4</v>
       </c>
@@ -959,7 +961,7 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <f>SUM(I15:I18)</f>
         <v>5.3699999999999998E-3</v>
       </c>
@@ -974,7 +976,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="20">
+      <c r="I20" s="18">
         <f>F19+I19</f>
         <v>2.1076000000000001E-2</v>
       </c>

--- a/pricingcomparison.xlsx
+++ b/pricingcomparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainapudi/Desktop/multimodal-rag-on-slide-decks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE55CB-97B1-7643-B011-07BC822731B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37129DA9-601E-B54F-A808-50C2D641CB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{BEBA8347-5D96-5440-96D2-646A5128C4D4}"/>
   </bookViews>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,9 +242,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +259,12 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B723AB-3729-164F-A81B-11EED7E96CFC}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,30 +605,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="6"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:15" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -660,23 +663,23 @@
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>E6/1000 * D6</f>
         <v>6.0000000000000008E-8</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <f>H6/1000 * G6</f>
         <v>0</v>
       </c>
@@ -688,23 +691,23 @@
       <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E7" s="7">
         <v>20</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f t="shared" ref="F7:F8" si="0">E7/1000 * D7</f>
         <v>1.6000000000000003E-5</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f t="shared" ref="I7:I8" si="1">H7/1000 * G7</f>
         <v>0</v>
       </c>
@@ -716,23 +719,23 @@
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E8" s="7">
         <v>700</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>1.2E-4</v>
       </c>
@@ -744,13 +747,13 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>SUM(F5:F8)</f>
         <v>2.1160599999999999E-3</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <f>SUM(I5:I8)</f>
         <v>1.2E-4</v>
       </c>
@@ -765,7 +768,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <f>F9+I9</f>
         <v>2.2360599999999998E-3</v>
       </c>
@@ -781,30 +784,30 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -843,23 +846,23 @@
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E15">
         <v>4523</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f>E15/1000 * D15</f>
         <v>1.3568999999999999E-2</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H15" s="8">
         <v>350</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <f>H15/1000 * G15</f>
         <v>5.2499999999999995E-3</v>
       </c>
@@ -871,23 +874,23 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>1E-4</v>
       </c>
       <c r="E16" s="7">
         <v>350</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <f t="shared" ref="F16:F18" si="2">E16/1000 * D16</f>
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>0</v>
       </c>
       <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <f t="shared" ref="I16:I18" si="3">H16/1000 * G16</f>
         <v>0</v>
       </c>
@@ -899,23 +902,23 @@
       <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>1E-4</v>
       </c>
       <c r="E17" s="7">
         <v>20</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f t="shared" si="2"/>
         <v>2.0000000000000003E-6</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -927,23 +930,23 @@
       <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="7">
         <v>700</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H18" s="8">
         <v>8</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <f t="shared" si="3"/>
         <v>1.2E-4</v>
       </c>
@@ -955,13 +958,13 @@
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f>SUM(F15:F18)</f>
         <v>1.5706000000000001E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <f>SUM(I15:I18)</f>
         <v>5.3699999999999998E-3</v>
       </c>
@@ -976,15 +979,15 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <f>F19+I19</f>
         <v>2.1076000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D13:F13"/>
